--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>9-10</t>
   </si>
@@ -70,19 +70,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>HORARIO SIN SÁBADO</t>
-  </si>
-  <si>
-    <t>HORARIO CON SÁBADO</t>
-  </si>
-  <si>
     <t>Notas:</t>
   </si>
   <si>
-    <t>Llevando el curso de verano</t>
-  </si>
-  <si>
     <t>Llevando el curso de verano y rotando 2 sábados cada mes</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>HORARIO PRACTICANTE</t>
   </si>
 </sst>
 </file>
@@ -106,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +119,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,8 +189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,35 +490,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
-      <c r="N2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
@@ -548,417 +529,225 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="6" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="C7" s="4"/>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C6:C17)</f>
         <v>5</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="D18">
+        <f t="shared" ref="D18:E18" si="0">SUM(D6:D17)</f>
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <f>SUM(C5:C16)</f>
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:G17" si="0">SUM(D5:D16)</f>
-        <v>6.5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="H17">
-        <f>SUM(C17:G17)</f>
-        <v>27.5</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17">
-        <f>SUM(M5:M16)</f>
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ref="N17:R17" si="1">SUM(N5:N16)</f>
-        <v>6.5</v>
-      </c>
-      <c r="O17">
+      <c r="F18">
+        <f>SUM(F8:F17)</f>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:H18" si="1">SUM(G6:G17)</f>
+        <v>6</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S17">
-        <f>SUM(M17:R17)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I18">
+        <f>SUM(C18:H18)</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N2:Q2"/>
+  <mergeCells count="1">
     <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
